--- a/biology/Zoologie/Acestridium/Acestridium.xlsx
+++ b/biology/Zoologie/Acestridium/Acestridium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acestridium est un genre de poissons de la famille des Loricariidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Acestridium sont longs et fins et ont l'apparence d'une brindille, ils ressemblent aux espèces du genre Farlowella, ils mesurent entre 5 et 7 cm à l'âge adulte.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent dans la région amazonienne du Brésil, du Venezuela et de la Colombie.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils vivent dans les ruisseaux et sur les rives.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (21 mai 2023)[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (21 mai 2023)
 Acestridium colombiense Retzer, 2005
 Acestridium discus Haseman, 1911
 Acestridium gymnogaster Reis &amp; Lehmann-Albornoz, 2009
@@ -640,7 +660,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Acestridium a été créé en 1911 par l'ichtyologiste américain John Diederich Haseman (d) (1882–1969).
 </t>
